--- a/2019_tourist.xlsx
+++ b/2019_tourist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\eating2019\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderson/Documents/R資料科學第一組final project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E355AA23-17E1-5042-A917-7E62FE934EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12855" windowHeight="7395" tabRatio="909"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27280" windowHeight="17780" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="累計明細表- 以類型分" sheetId="5" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'累計明細表- 以類型分'!$A$3:$Q$355</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1888,11 +1889,6 @@
   <si>
     <t>國民革命忠烈祠
  National Revolutionary Martyr’ Shrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北市立動物園 
-Taipei Zoo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2370,12 +2366,17 @@
     <t>註2：108年新增據點冷水坑、擎天崗、得月樓、臺灣客家文化館、六堆客家文化園區、松山文創園區、林口三井outlet、桃園市客家文化館、永安漁港、客家圓樓、台中國家歌劇院、扇形車庫、清境高空觀景步道、古坑綠色隧道、台東森林公園、北寮奎壁山地質公園、禮納里部落等17處。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>市立動物園 
+Taipei Zoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2629,7 +2630,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_Sheet1" xfId="1"/>
+    <cellStyle name="一般_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2906,30 +2907,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D350" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C117" sqref="C117:C118"/>
+      <selection pane="bottomRight" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="35.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="11" customWidth="1"/>
-    <col min="4" max="15" width="7.75" customWidth="1"/>
-    <col min="16" max="16" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="25.375" customWidth="1"/>
-    <col min="19" max="19" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" style="11" customWidth="1"/>
+    <col min="4" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="70.25" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2948,7 +2949,7 @@
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
     </row>
-    <row r="2" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="6.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="11"/>
       <c r="D2" s="1"/>
@@ -2966,7 +2967,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="7" customFormat="1" ht="30">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="9" customFormat="1" ht="58.5" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -3042,7 +3043,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="28">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="28">
       <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="28">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="28">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
@@ -3255,10 +3256,10 @@
         <v>568615</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28">
       <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
@@ -3309,10 +3310,10 @@
         <v>713766</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28">
       <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
@@ -3363,10 +3364,10 @@
         <v>469017</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>253</v>
@@ -3415,10 +3416,10 @@
         <v>617500</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="28">
       <c r="A12" s="17"/>
       <c r="B12" s="14" t="s">
         <v>254</v>
@@ -3467,10 +3468,10 @@
         <v>609928</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28">
       <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="28">
       <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D14" s="3">
         <v>27352</v>
@@ -3574,10 +3575,10 @@
         <v>477834</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="28">
       <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
@@ -3628,10 +3629,10 @@
         <v>33491</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="28">
       <c r="A16" s="17" t="s">
         <v>5</v>
       </c>
@@ -3682,10 +3683,10 @@
         <v>333154</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="28">
       <c r="A17" s="17"/>
       <c r="B17" s="14" t="s">
         <v>255</v>
@@ -3734,10 +3735,10 @@
         <v>114836</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="28">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -3788,10 +3789,10 @@
         <v>58124</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="28">
       <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="28">
       <c r="A20" s="17" t="s">
         <v>5</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="28">
       <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="28">
       <c r="A22" s="17" t="s">
         <v>5</v>
       </c>
@@ -4001,10 +4002,10 @@
         <v>119996</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="28">
       <c r="A23" s="17" t="s">
         <v>5</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="28">
       <c r="A24" s="17" t="s">
         <v>5</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="42">
       <c r="A25" s="17" t="s">
         <v>5</v>
       </c>
@@ -4162,10 +4163,10 @@
         <v>76124</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="28">
       <c r="A26" s="17" t="s">
         <v>5</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="28">
       <c r="A27" s="17" t="s">
         <v>5</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="28">
       <c r="A28" s="17" t="s">
         <v>5</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="28">
       <c r="A29" s="17" t="s">
         <v>5</v>
       </c>
@@ -4378,10 +4379,10 @@
         <v>99075</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="28">
       <c r="A30" s="17" t="s">
         <v>5</v>
       </c>
@@ -4432,10 +4433,10 @@
         <v>431604</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="28">
       <c r="A31" s="17" t="s">
         <v>5</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="28">
       <c r="A32" s="17" t="s">
         <v>5</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="28">
       <c r="A33" s="17" t="s">
         <v>5</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="28">
       <c r="A34" s="17" t="s">
         <v>5</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="28">
       <c r="A35" s="17" t="s">
         <v>5</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="28">
       <c r="A36" s="17" t="s">
         <v>5</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="28">
       <c r="A37" s="17" t="s">
         <v>5</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="28">
       <c r="A38" s="17" t="s">
         <v>5</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="28">
       <c r="A39" s="17" t="s">
         <v>5</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="28">
       <c r="A40" s="17" t="s">
         <v>5</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="28">
       <c r="A41" s="17" t="s">
         <v>5</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="28">
       <c r="A42" s="17" t="s">
         <v>5</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="28">
       <c r="A43" s="17" t="s">
         <v>5</v>
       </c>
@@ -5128,10 +5129,10 @@
         <v>181553</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="28">
       <c r="A44" s="17" t="s">
         <v>5</v>
       </c>
@@ -5182,10 +5183,10 @@
         <v>174023</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="28">
       <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="28">
       <c r="A46" s="17"/>
       <c r="B46" s="14" t="s">
         <v>126</v>
@@ -5291,7 +5292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="28">
       <c r="A47" s="17"/>
       <c r="B47" s="14" t="s">
         <v>256</v>
@@ -5343,7 +5344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="28">
       <c r="A48" s="17" t="s">
         <v>5</v>
       </c>
@@ -5394,10 +5395,10 @@
         <v>164558</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="28">
       <c r="A49" s="18" t="s">
         <v>21</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="28">
       <c r="A50" s="19" t="s">
         <v>21</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="28">
       <c r="A51" s="19" t="s">
         <v>21</v>
       </c>
@@ -5556,7 +5557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="28">
       <c r="A52" s="19" t="s">
         <v>21</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="28">
       <c r="A53" s="19" t="s">
         <v>21</v>
       </c>
@@ -5664,7 +5665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="28">
       <c r="A54" s="19" t="s">
         <v>21</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="28">
       <c r="A55" s="19" t="s">
         <v>21</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="28">
       <c r="A56" s="19" t="s">
         <v>21</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="28">
       <c r="A57" s="19" t="s">
         <v>21</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="28">
       <c r="A58" s="19" t="s">
         <v>21</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="42">
       <c r="A59" s="19" t="s">
         <v>21</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>139</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D59" s="3">
         <v>24033</v>
@@ -5988,7 +5989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="28">
       <c r="A60" s="19" t="s">
         <v>21</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="28">
       <c r="A61" s="19" t="s">
         <v>21</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="28">
       <c r="A62" s="19" t="s">
         <v>21</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="28">
       <c r="A63" s="19" t="s">
         <v>21</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="28">
       <c r="A64" s="19" t="s">
         <v>21</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="28">
       <c r="A65" s="19" t="s">
         <v>21</v>
       </c>
@@ -6283,7 +6284,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="10"/>
     </row>
-    <row r="66" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="28">
       <c r="A66" s="19" t="s">
         <v>21</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="28">
       <c r="A67" s="19" t="s">
         <v>21</v>
       </c>
@@ -6391,7 +6392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="28">
       <c r="A68" s="19"/>
       <c r="B68" s="14" t="s">
         <v>258</v>
@@ -6440,10 +6441,10 @@
         <v>162295</v>
       </c>
       <c r="Q68" s="10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="28">
       <c r="A69" s="19" t="s">
         <v>21</v>
       </c>
@@ -6497,7 +6498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="28">
       <c r="A70" s="19" t="s">
         <v>21</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="28">
       <c r="A71" s="19" t="s">
         <v>21</v>
       </c>
@@ -6605,7 +6606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="28">
       <c r="A72" s="19" t="s">
         <v>21</v>
       </c>
@@ -6656,10 +6657,10 @@
         <v>368169</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="28">
       <c r="A73" s="19" t="s">
         <v>21</v>
       </c>
@@ -6713,7 +6714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="28">
       <c r="A74" s="19" t="s">
         <v>21</v>
       </c>
@@ -6766,7 +6767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="28">
       <c r="A75" s="19" t="s">
         <v>21</v>
       </c>
@@ -6817,10 +6818,10 @@
         <v>665000</v>
       </c>
       <c r="Q75" s="10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="28">
       <c r="A76" s="19" t="s">
         <v>21</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="28">
       <c r="A77" s="19" t="s">
         <v>21</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="28">
       <c r="A78" s="19" t="s">
         <v>21</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="28">
       <c r="A79" s="19" t="s">
         <v>21</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="42">
       <c r="A80" s="19" t="s">
         <v>21</v>
       </c>
@@ -7090,7 +7091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="28">
       <c r="A81" s="19" t="s">
         <v>21</v>
       </c>
@@ -7141,10 +7142,10 @@
         <v>289220</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="28">
       <c r="A82" s="19" t="s">
         <v>21</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="28">
       <c r="A83" s="19" t="s">
         <v>21</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="28">
       <c r="A84" s="19" t="s">
         <v>21</v>
       </c>
@@ -7303,7 +7304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="28">
       <c r="A85" s="19" t="s">
         <v>21</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="28">
       <c r="A86" s="19" t="s">
         <v>21</v>
       </c>
@@ -7411,7 +7412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="28">
       <c r="A87" s="19" t="s">
         <v>21</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="28">
       <c r="A88" s="19" t="s">
         <v>21</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="28">
       <c r="A89" s="19" t="s">
         <v>21</v>
       </c>
@@ -7524,7 +7525,7 @@
         <v>170</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D89" s="3">
         <v>397569</v>
@@ -7567,10 +7568,10 @@
         <v>6836529</v>
       </c>
       <c r="Q89" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="28">
       <c r="A90" s="19" t="s">
         <v>21</v>
       </c>
@@ -7621,10 +7622,10 @@
         <v>452940</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="28">
       <c r="A91" s="19" t="s">
         <v>21</v>
       </c>
@@ -7632,7 +7633,7 @@
         <v>172</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D91" s="3">
         <v>338453</v>
@@ -7675,10 +7676,10 @@
         <v>4840064</v>
       </c>
       <c r="Q91" s="10" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="28">
       <c r="A92" s="19" t="s">
         <v>21</v>
       </c>
@@ -7729,10 +7730,10 @@
         <v>1872795</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="28">
       <c r="A93" s="19" t="s">
         <v>21</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="28">
       <c r="A94" s="19" t="s">
         <v>21</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="28">
       <c r="A95" s="19" t="s">
         <v>21</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="28">
       <c r="A96" s="19" t="s">
         <v>21</v>
       </c>
@@ -7942,13 +7943,13 @@
         <v>262613</v>
       </c>
       <c r="Q96" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="28">
       <c r="A97" s="19"/>
       <c r="B97" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>273</v>
@@ -7997,7 +7998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="28">
       <c r="A98" s="19" t="s">
         <v>21</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="28">
       <c r="A99" s="19" t="s">
         <v>21</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="28">
       <c r="A100" s="19" t="s">
         <v>21</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="28">
       <c r="A101" s="19" t="s">
         <v>21</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="28">
       <c r="A102" s="19" t="s">
         <v>21</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="28">
       <c r="A103" s="19" t="s">
         <v>21</v>
       </c>
@@ -8315,7 +8316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="28">
       <c r="A104" s="19" t="s">
         <v>21</v>
       </c>
@@ -8369,7 +8370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="28">
       <c r="A105" s="19" t="s">
         <v>21</v>
       </c>
@@ -8423,7 +8424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="28">
       <c r="A106" s="19" t="s">
         <v>21</v>
       </c>
@@ -8476,7 +8477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="28">
       <c r="A107" s="19"/>
       <c r="B107" s="14" t="s">
         <v>259</v>
@@ -8526,7 +8527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="28">
       <c r="A108" s="19" t="s">
         <v>21</v>
       </c>
@@ -8580,10 +8581,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="28">
       <c r="A109" s="19"/>
       <c r="B109" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>176</v>
@@ -8632,10 +8633,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="28">
       <c r="A110" s="19"/>
       <c r="B110" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>176</v>
@@ -8684,7 +8685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="28">
       <c r="A111" s="19" t="s">
         <v>21</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="28">
       <c r="A112" s="19" t="s">
         <v>21</v>
       </c>
@@ -8789,7 +8790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="28">
       <c r="A113" s="19" t="s">
         <v>21</v>
       </c>
@@ -8840,10 +8841,10 @@
         <v>263172</v>
       </c>
       <c r="Q113" s="10" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="28">
       <c r="A114" s="19" t="s">
         <v>21</v>
       </c>
@@ -8894,10 +8895,10 @@
         <v>262382</v>
       </c>
       <c r="Q114" s="10" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="28">
       <c r="A115" s="19" t="s">
         <v>21</v>
       </c>
@@ -8951,7 +8952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="28">
       <c r="A116" s="19" t="s">
         <v>21</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="28">
       <c r="A117" s="19" t="s">
         <v>21</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="28">
       <c r="A118" s="19"/>
       <c r="B118" s="14" t="s">
         <v>260</v>
@@ -9108,10 +9109,10 @@
         <v>31969</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="28">
       <c r="A119" s="19" t="s">
         <v>21</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="28">
       <c r="A120" s="19" t="s">
         <v>21</v>
       </c>
@@ -9216,7 +9217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="28">
       <c r="A121" s="19" t="s">
         <v>21</v>
       </c>
@@ -9270,7 +9271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="28">
       <c r="A122" s="19" t="s">
         <v>21</v>
       </c>
@@ -9324,7 +9325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="28">
       <c r="A123" s="19" t="s">
         <v>21</v>
       </c>
@@ -9375,7 +9376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="28">
       <c r="A124" s="19" t="s">
         <v>21</v>
       </c>
@@ -9426,10 +9427,10 @@
         <v>108650</v>
       </c>
       <c r="Q124" s="10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="28">
       <c r="A125" s="19" t="s">
         <v>21</v>
       </c>
@@ -9483,7 +9484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="28">
       <c r="A126" s="19" t="s">
         <v>21</v>
       </c>
@@ -9537,7 +9538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="28">
       <c r="A127" s="19" t="s">
         <v>21</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="28">
       <c r="A128" s="19" t="s">
         <v>21</v>
       </c>
@@ -9642,10 +9643,10 @@
         <v>397750</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="28">
       <c r="A129" s="19" t="s">
         <v>21</v>
       </c>
@@ -9696,10 +9697,10 @@
         <v>38484</v>
       </c>
       <c r="Q129" s="10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="28">
       <c r="A130" s="19" t="s">
         <v>21</v>
       </c>
@@ -9750,10 +9751,10 @@
         <v>372636</v>
       </c>
       <c r="Q130" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="28">
       <c r="A131" s="19"/>
       <c r="B131" s="14" t="s">
         <v>261</v>
@@ -9800,10 +9801,10 @@
         <v>531299</v>
       </c>
       <c r="Q131" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="28">
       <c r="A132" s="19" t="s">
         <v>21</v>
       </c>
@@ -9856,7 +9857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" ht="28">
       <c r="A133" s="19" t="s">
         <v>21</v>
       </c>
@@ -9907,10 +9908,10 @@
         <v>19255</v>
       </c>
       <c r="Q133" s="10" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="28">
       <c r="A134" s="19" t="s">
         <v>21</v>
       </c>
@@ -9961,10 +9962,10 @@
         <v>29269</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="28">
       <c r="A135" s="19" t="s">
         <v>21</v>
       </c>
@@ -10015,10 +10016,10 @@
         <v>77710</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="28">
       <c r="A136" s="20" t="s">
         <v>21</v>
       </c>
@@ -10069,15 +10070,15 @@
         <v>68447</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="28">
       <c r="A137" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>129</v>
@@ -10123,13 +10124,13 @@
         <v>2147700</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="28">
       <c r="A138" s="17"/>
       <c r="B138" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>129</v>
@@ -10178,7 +10179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" ht="39.75" customHeight="1">
       <c r="A139" s="17"/>
       <c r="B139" s="14" t="s">
         <v>262</v>
@@ -10230,7 +10231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" ht="28">
       <c r="A140" s="17"/>
       <c r="B140" s="14" t="s">
         <v>263</v>
@@ -10282,7 +10283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" ht="28">
       <c r="A141" s="17"/>
       <c r="B141" s="14" t="s">
         <v>248</v>
@@ -10334,7 +10335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" ht="28">
       <c r="A142" s="17" t="s">
         <v>41</v>
       </c>
@@ -10385,10 +10386,10 @@
         <v>1960012</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="28">
       <c r="A143" s="17" t="s">
         <v>41</v>
       </c>
@@ -10442,7 +10443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" ht="28">
       <c r="A144" s="17" t="s">
         <v>41</v>
       </c>
@@ -10496,7 +10497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" ht="28">
       <c r="A145" s="17" t="s">
         <v>41</v>
       </c>
@@ -10550,7 +10551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" ht="28">
       <c r="A146" s="17" t="s">
         <v>41</v>
       </c>
@@ -10604,7 +10605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" ht="28">
       <c r="A147" s="17" t="s">
         <v>41</v>
       </c>
@@ -10658,7 +10659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" ht="28">
       <c r="A148" s="17" t="s">
         <v>41</v>
       </c>
@@ -10712,7 +10713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" ht="28">
       <c r="A149" s="17" t="s">
         <v>41</v>
       </c>
@@ -10763,10 +10764,10 @@
         <v>190492</v>
       </c>
       <c r="Q149" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="28">
       <c r="A150" s="17" t="s">
         <v>41</v>
       </c>
@@ -10817,10 +10818,10 @@
         <v>1444919</v>
       </c>
       <c r="Q150" s="10" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="28">
       <c r="A151" s="17" t="s">
         <v>41</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="28">
       <c r="A152" s="17" t="s">
         <v>41</v>
       </c>
@@ -10925,15 +10926,15 @@
         <v>1279137</v>
       </c>
       <c r="Q152" s="10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" ht="28">
       <c r="A153" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>156</v>
@@ -10979,10 +10980,10 @@
         <v>378862</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="28">
       <c r="A154" s="17" t="s">
         <v>43</v>
       </c>
@@ -11036,7 +11037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="28">
       <c r="A155" s="17" t="s">
         <v>43</v>
       </c>
@@ -11090,7 +11091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="28">
       <c r="A156" s="17" t="s">
         <v>43</v>
       </c>
@@ -11144,7 +11145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="28">
       <c r="A157" s="17" t="s">
         <v>43</v>
       </c>
@@ -11198,7 +11199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="28">
       <c r="A158" s="17" t="s">
         <v>43</v>
       </c>
@@ -11252,7 +11253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="28">
       <c r="A159" s="17" t="s">
         <v>43</v>
       </c>
@@ -11306,7 +11307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="28">
       <c r="A160" s="17" t="s">
         <v>43</v>
       </c>
@@ -11360,7 +11361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="28">
       <c r="A161" s="17" t="s">
         <v>43</v>
       </c>
@@ -11414,7 +11415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="28">
       <c r="A162" s="17" t="s">
         <v>43</v>
       </c>
@@ -11468,7 +11469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="28">
       <c r="A163" s="17" t="s">
         <v>43</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="28">
       <c r="A164" s="17" t="s">
         <v>43</v>
       </c>
@@ -11576,7 +11577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="28">
       <c r="A165" s="17" t="s">
         <v>43</v>
       </c>
@@ -11630,7 +11631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="28">
       <c r="A166" s="17" t="s">
         <v>43</v>
       </c>
@@ -11684,7 +11685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="28">
       <c r="A167" s="17" t="s">
         <v>43</v>
       </c>
@@ -11738,7 +11739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="28">
       <c r="A168" s="17" t="s">
         <v>43</v>
       </c>
@@ -11792,7 +11793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="28">
       <c r="A169" s="17" t="s">
         <v>43</v>
       </c>
@@ -11846,7 +11847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="28">
       <c r="A170" s="17" t="s">
         <v>43</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="28">
       <c r="A171" s="17"/>
       <c r="B171" s="14" t="s">
         <v>247</v>
@@ -11952,12 +11953,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="28">
       <c r="A172" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C172" s="12" t="s">
         <v>229</v>
@@ -12006,7 +12007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="28">
       <c r="A173" s="17" t="s">
         <v>268</v>
       </c>
@@ -12060,7 +12061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" ht="28">
       <c r="A174" s="17"/>
       <c r="B174" s="14" t="s">
         <v>265</v>
@@ -12112,7 +12113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="28">
       <c r="A175" s="17"/>
       <c r="B175" s="14" t="s">
         <v>266</v>
@@ -12164,10 +12165,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="28">
       <c r="A176" s="17"/>
       <c r="B176" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C176" s="15" t="s">
         <v>229</v>
@@ -12216,7 +12217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" ht="28">
       <c r="A177" s="17"/>
       <c r="B177" s="14" t="s">
         <v>250</v>
@@ -12268,7 +12269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="28">
       <c r="A178" s="17"/>
       <c r="B178" s="14" t="s">
         <v>267</v>
@@ -12320,7 +12321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="28">
       <c r="A179" s="21" t="s">
         <v>272</v>
       </c>
@@ -12374,7 +12375,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="28">
       <c r="A180" s="22"/>
       <c r="B180" s="14" t="s">
         <v>269</v>
@@ -12426,7 +12427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" ht="28">
       <c r="A181" s="22"/>
       <c r="B181" s="14" t="s">
         <v>275</v>
@@ -12478,7 +12479,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="28">
       <c r="A182" s="22"/>
       <c r="B182" s="14" t="s">
         <v>270</v>
@@ -12527,10 +12528,10 @@
         <v>465728</v>
       </c>
       <c r="Q182" s="10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" ht="28">
       <c r="A183" s="22"/>
       <c r="B183" s="14" t="s">
         <v>277</v>
@@ -12579,10 +12580,10 @@
         <v>532257</v>
       </c>
       <c r="Q183" s="10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="28">
       <c r="A184" s="23"/>
       <c r="B184" s="14" t="s">
         <v>271</v>
@@ -12634,7 +12635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" ht="45.75" customHeight="1">
       <c r="A185" s="18" t="s">
         <v>318</v>
       </c>
@@ -12688,7 +12689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="34.5" customHeight="1">
       <c r="A186" s="19" t="s">
         <v>318</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="41.25" customHeight="1">
       <c r="A187" s="19" t="s">
         <v>319</v>
       </c>
@@ -12793,10 +12794,10 @@
         <v>1893432</v>
       </c>
       <c r="Q187" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="30.75" customHeight="1">
       <c r="A188" s="19" t="s">
         <v>318</v>
       </c>
@@ -12850,7 +12851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="38.25" customHeight="1">
       <c r="A189" s="19" t="s">
         <v>318</v>
       </c>
@@ -12904,7 +12905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="26.25" customHeight="1">
       <c r="A190" s="19" t="s">
         <v>318</v>
       </c>
@@ -12958,7 +12959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="26.25" customHeight="1">
       <c r="A191" s="19" t="s">
         <v>320</v>
       </c>
@@ -13009,10 +13010,10 @@
         <v>3000761</v>
       </c>
       <c r="Q191" s="10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" ht="28">
       <c r="A192" s="19" t="s">
         <v>318</v>
       </c>
@@ -13066,7 +13067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="28">
       <c r="A193" s="19" t="s">
         <v>318</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="28">
       <c r="A194" s="19" t="s">
         <v>318</v>
       </c>
@@ -13174,7 +13175,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="28">
       <c r="A195" s="19" t="s">
         <v>318</v>
       </c>
@@ -13228,7 +13229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="28">
       <c r="A196" s="19" t="s">
         <v>320</v>
       </c>
@@ -13282,7 +13283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="28">
       <c r="A197" s="19" t="s">
         <v>318</v>
       </c>
@@ -13336,7 +13337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="42">
       <c r="A198" s="19" t="s">
         <v>318</v>
       </c>
@@ -13390,7 +13391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="28">
       <c r="A199" s="19" t="s">
         <v>318</v>
       </c>
@@ -13444,7 +13445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="28">
       <c r="A200" s="19" t="s">
         <v>318</v>
       </c>
@@ -13495,10 +13496,10 @@
         <v>982151</v>
       </c>
       <c r="Q200" s="10" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="201" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" ht="42">
       <c r="A201" s="19" t="s">
         <v>318</v>
       </c>
@@ -13549,10 +13550,10 @@
         <v>2208724</v>
       </c>
       <c r="Q201" s="10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="28">
       <c r="A202" s="19" t="s">
         <v>318</v>
       </c>
@@ -13606,7 +13607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" ht="28">
       <c r="A203" s="19" t="s">
         <v>318</v>
       </c>
@@ -13660,7 +13661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" ht="28">
       <c r="A204" s="19" t="s">
         <v>318</v>
       </c>
@@ -13714,7 +13715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" ht="28">
       <c r="A205" s="19" t="s">
         <v>318</v>
       </c>
@@ -13765,10 +13766,10 @@
         <v>736113</v>
       </c>
       <c r="Q205" s="10" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="206" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" ht="28">
       <c r="A206" s="19" t="s">
         <v>318</v>
       </c>
@@ -13822,7 +13823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" ht="28">
       <c r="A207" s="19" t="s">
         <v>318</v>
       </c>
@@ -13876,7 +13877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" ht="28">
       <c r="A208" s="19" t="s">
         <v>318</v>
       </c>
@@ -13930,7 +13931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" ht="28">
       <c r="A209" s="19" t="s">
         <v>318</v>
       </c>
@@ -13984,7 +13985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="28">
       <c r="A210" s="19" t="s">
         <v>321</v>
       </c>
@@ -14038,7 +14039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="28">
       <c r="A211" s="19" t="s">
         <v>318</v>
       </c>
@@ -14092,7 +14093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" ht="28">
       <c r="A212" s="19" t="s">
         <v>318</v>
       </c>
@@ -14146,7 +14147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" ht="28">
       <c r="A213" s="19" t="s">
         <v>318</v>
       </c>
@@ -14200,7 +14201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" ht="28">
       <c r="A214" s="19" t="s">
         <v>318</v>
       </c>
@@ -14254,7 +14255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" ht="28">
       <c r="A215" s="19" t="s">
         <v>318</v>
       </c>
@@ -14308,7 +14309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" ht="28">
       <c r="A216" s="19" t="s">
         <v>318</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" ht="28">
       <c r="A217" s="19" t="s">
         <v>318</v>
       </c>
@@ -14416,7 +14417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" ht="28">
       <c r="A218" s="19" t="s">
         <v>321</v>
       </c>
@@ -14470,7 +14471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" ht="28">
       <c r="A219" s="19" t="s">
         <v>318</v>
       </c>
@@ -14524,7 +14525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" ht="28">
       <c r="A220" s="19" t="s">
         <v>318</v>
       </c>
@@ -14578,7 +14579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" ht="28">
       <c r="A221" s="19" t="s">
         <v>318</v>
       </c>
@@ -14632,7 +14633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" ht="28">
       <c r="A222" s="19" t="s">
         <v>318</v>
       </c>
@@ -14686,7 +14687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" ht="28">
       <c r="A223" s="19" t="s">
         <v>318</v>
       </c>
@@ -14740,7 +14741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" ht="28">
       <c r="A224" s="19" t="s">
         <v>318</v>
       </c>
@@ -14794,7 +14795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" ht="28">
       <c r="A225" s="20" t="s">
         <v>318</v>
       </c>
@@ -14845,10 +14846,10 @@
         <v>581310</v>
       </c>
       <c r="Q225" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" ht="28">
       <c r="A226" s="17" t="s">
         <v>306</v>
       </c>
@@ -14902,7 +14903,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" ht="28">
       <c r="A227" s="17" t="s">
         <v>306</v>
       </c>
@@ -14956,7 +14957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" ht="28">
       <c r="A228" s="17" t="s">
         <v>306</v>
       </c>
@@ -15010,7 +15011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" ht="28">
       <c r="A229" s="17" t="s">
         <v>306</v>
       </c>
@@ -15061,10 +15062,10 @@
         <v>1007939</v>
       </c>
       <c r="Q229" s="10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" ht="28">
       <c r="A230" s="17" t="s">
         <v>306</v>
       </c>
@@ -15118,7 +15119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" ht="28">
       <c r="A231" s="17" t="s">
         <v>306</v>
       </c>
@@ -15172,7 +15173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" ht="28">
       <c r="A232" s="17" t="s">
         <v>306</v>
       </c>
@@ -15223,10 +15224,10 @@
         <v>923900</v>
       </c>
       <c r="Q232" s="10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="233" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" ht="28">
       <c r="A233" s="17" t="s">
         <v>306</v>
       </c>
@@ -15277,10 +15278,10 @@
         <v>18136</v>
       </c>
       <c r="Q233" s="10" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" ht="42">
       <c r="A234" s="17" t="s">
         <v>306</v>
       </c>
@@ -15331,10 +15332,10 @@
         <v>226356</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" ht="28">
       <c r="A235" s="17" t="s">
         <v>306</v>
       </c>
@@ -15388,7 +15389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" ht="28">
       <c r="A236" s="17" t="s">
         <v>45</v>
       </c>
@@ -15442,7 +15443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" ht="28">
       <c r="A237" s="17" t="s">
         <v>45</v>
       </c>
@@ -15496,7 +15497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" ht="28">
       <c r="A238" s="17" t="s">
         <v>45</v>
       </c>
@@ -15550,7 +15551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" ht="28">
       <c r="A239" s="17" t="s">
         <v>45</v>
       </c>
@@ -15601,10 +15602,10 @@
         <v>505044</v>
       </c>
       <c r="Q239" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="240" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" ht="28">
       <c r="A240" s="17" t="s">
         <v>45</v>
       </c>
@@ -15655,10 +15656,10 @@
         <v>339655</v>
       </c>
       <c r="Q240" s="10" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="241" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" ht="28">
       <c r="A241" s="17" t="s">
         <v>45</v>
       </c>
@@ -15712,7 +15713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" ht="28">
       <c r="A242" s="17" t="s">
         <v>45</v>
       </c>
@@ -15766,7 +15767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" ht="28">
       <c r="A243" s="17" t="s">
         <v>45</v>
       </c>
@@ -15817,15 +15818,15 @@
         <v>328595</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="244" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" ht="28">
       <c r="A244" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="C244" s="15" t="s">
         <v>325</v>
@@ -15874,7 +15875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" ht="28">
       <c r="A245" s="17" t="s">
         <v>45</v>
       </c>
@@ -15925,10 +15926,10 @@
         <v>2815012</v>
       </c>
       <c r="Q245" s="10" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="246" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" ht="28">
       <c r="A246" s="17" t="s">
         <v>45</v>
       </c>
@@ -15982,7 +15983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" ht="28">
       <c r="A247" s="17" t="s">
         <v>45</v>
       </c>
@@ -16036,12 +16037,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" ht="28">
       <c r="A248" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C248" s="15" t="s">
         <v>327</v>
@@ -16090,7 +16091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" ht="28">
       <c r="A249" s="17" t="s">
         <v>45</v>
       </c>
@@ -16144,7 +16145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" ht="28">
       <c r="A250" s="17" t="s">
         <v>45</v>
       </c>
@@ -16195,10 +16196,10 @@
         <v>1042900</v>
       </c>
       <c r="Q250" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" ht="28">
       <c r="A251" s="17" t="s">
         <v>45</v>
       </c>
@@ -16249,10 +16250,10 @@
         <v>788650</v>
       </c>
       <c r="Q251" s="10" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" ht="28">
       <c r="A252" s="17" t="s">
         <v>45</v>
       </c>
@@ -16306,7 +16307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" ht="28">
       <c r="A253" s="17" t="s">
         <v>45</v>
       </c>
@@ -16360,12 +16361,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" ht="28">
       <c r="A254" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C254" s="15" t="s">
         <v>353</v>
@@ -16411,10 +16412,10 @@
         <v>717720</v>
       </c>
       <c r="Q254" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" ht="28">
       <c r="A255" s="17" t="s">
         <v>45</v>
       </c>
@@ -16468,7 +16469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" ht="28">
       <c r="A256" s="17" t="s">
         <v>45</v>
       </c>
@@ -16519,15 +16520,15 @@
         <v>2896952</v>
       </c>
       <c r="Q256" s="10" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="257" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" ht="28">
       <c r="A257" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C257" s="15" t="s">
         <v>329</v>
@@ -16576,7 +16577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" ht="28">
       <c r="A258" s="17" t="s">
         <v>45</v>
       </c>
@@ -16630,7 +16631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" ht="28">
       <c r="A259" s="17" t="s">
         <v>45</v>
       </c>
@@ -16681,10 +16682,10 @@
         <v>1907149</v>
       </c>
       <c r="Q259" s="10" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="260" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" ht="28">
       <c r="A260" s="17" t="s">
         <v>45</v>
       </c>
@@ -16735,10 +16736,10 @@
         <v>408696</v>
       </c>
       <c r="Q260" s="10" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="261" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" ht="28">
       <c r="A261" s="17" t="s">
         <v>45</v>
       </c>
@@ -16789,10 +16790,10 @@
         <v>6591445</v>
       </c>
       <c r="Q261" s="10" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="262" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" ht="28">
       <c r="A262" s="17" t="s">
         <v>45</v>
       </c>
@@ -16843,10 +16844,10 @@
         <v>9933514</v>
       </c>
       <c r="Q262" s="10" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="263" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" ht="42">
       <c r="A263" s="17" t="s">
         <v>45</v>
       </c>
@@ -16900,7 +16901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" ht="28">
       <c r="A264" s="17" t="s">
         <v>45</v>
       </c>
@@ -16954,7 +16955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" ht="28">
       <c r="A265" s="17" t="s">
         <v>45</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" ht="28">
       <c r="A266" s="17" t="s">
         <v>45</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" ht="28">
       <c r="A267" s="17" t="s">
         <v>45</v>
       </c>
@@ -17113,10 +17114,10 @@
         <v>0</v>
       </c>
       <c r="Q267" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="268" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" ht="28">
       <c r="A268" s="17" t="s">
         <v>45</v>
       </c>
@@ -17170,7 +17171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" ht="28">
       <c r="A269" s="17" t="s">
         <v>45</v>
       </c>
@@ -17224,7 +17225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" ht="28">
       <c r="A270" s="17" t="s">
         <v>45</v>
       </c>
@@ -17278,12 +17279,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" ht="28">
       <c r="A271" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>331</v>
@@ -17332,12 +17333,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" ht="28">
       <c r="A272" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>331</v>
@@ -17383,10 +17384,10 @@
         <v>433516</v>
       </c>
       <c r="Q272" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="273" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" ht="28">
       <c r="A273" s="17" t="s">
         <v>45</v>
       </c>
@@ -17440,12 +17441,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" ht="28">
       <c r="A274" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C274" s="15" t="s">
         <v>331</v>
@@ -17491,10 +17492,10 @@
         <v>1817345</v>
       </c>
       <c r="Q274" s="10" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="275" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" ht="28">
       <c r="A275" s="17" t="s">
         <v>45</v>
       </c>
@@ -17545,10 +17546,10 @@
         <v>720963</v>
       </c>
       <c r="Q275" s="10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="276" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" ht="28">
       <c r="A276" s="17" t="s">
         <v>45</v>
       </c>
@@ -17599,10 +17600,10 @@
         <v>6709979</v>
       </c>
       <c r="Q276" s="10" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="277" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" ht="28">
       <c r="A277" s="17" t="s">
         <v>45</v>
       </c>
@@ -17656,7 +17657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" ht="28">
       <c r="A278" s="17" t="s">
         <v>45</v>
       </c>
@@ -17710,7 +17711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" ht="28">
       <c r="A279" s="17" t="s">
         <v>45</v>
       </c>
@@ -17764,12 +17765,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" ht="28">
       <c r="A280" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C280" s="15" t="s">
         <v>331</v>
@@ -17818,12 +17819,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" ht="28">
       <c r="A281" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C281" s="15" t="s">
         <v>316</v>
@@ -17872,12 +17873,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" ht="28">
       <c r="A282" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C282" s="15" t="s">
         <v>327</v>
@@ -17926,12 +17927,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" ht="28">
       <c r="A283" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>337</v>
@@ -17980,7 +17981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" ht="28">
       <c r="A284" s="17" t="s">
         <v>45</v>
       </c>
@@ -18034,12 +18035,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" ht="28">
       <c r="A285" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C285" s="15" t="s">
         <v>325</v>
@@ -18088,7 +18089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" ht="28">
       <c r="A286" s="17" t="s">
         <v>45</v>
       </c>
@@ -18142,7 +18143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" ht="28">
       <c r="A287" s="17" t="s">
         <v>45</v>
       </c>
@@ -18196,7 +18197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" ht="28">
       <c r="A288" s="17" t="s">
         <v>45</v>
       </c>
@@ -18250,7 +18251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" ht="28">
       <c r="A289" s="17" t="s">
         <v>45</v>
       </c>
@@ -18304,12 +18305,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" ht="28">
       <c r="A290" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C290" s="15" t="s">
         <v>327</v>
@@ -18358,7 +18359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" ht="28">
       <c r="A291" s="17" t="s">
         <v>45</v>
       </c>
@@ -18412,7 +18413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" ht="28">
       <c r="A292" s="17" t="s">
         <v>45</v>
       </c>
@@ -18466,12 +18467,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" ht="28">
       <c r="A293" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C293" s="15" t="s">
         <v>356</v>
@@ -18520,12 +18521,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" ht="28">
       <c r="A294" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C294" s="15" t="s">
         <v>356</v>
@@ -18571,10 +18572,10 @@
         <v>1759644</v>
       </c>
       <c r="Q294" s="10" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="295" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" ht="28">
       <c r="A295" s="17" t="s">
         <v>45</v>
       </c>
@@ -18628,7 +18629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" ht="28">
       <c r="A296" s="17" t="s">
         <v>45</v>
       </c>
@@ -18682,7 +18683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" ht="28">
       <c r="A297" s="17" t="s">
         <v>45</v>
       </c>
@@ -18736,7 +18737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" ht="28">
       <c r="A298" s="17" t="s">
         <v>45</v>
       </c>
@@ -18790,7 +18791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" ht="28">
       <c r="A299" s="17" t="s">
         <v>45</v>
       </c>
@@ -18841,10 +18842,10 @@
         <v>5094703</v>
       </c>
       <c r="Q299" s="10" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="300" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" ht="28">
       <c r="A300" s="17" t="s">
         <v>45</v>
       </c>
@@ -18898,12 +18899,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" ht="28">
       <c r="A301" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C301" s="15" t="s">
         <v>339</v>
@@ -18952,7 +18953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" ht="28">
       <c r="A302" s="17" t="s">
         <v>45</v>
       </c>
@@ -19006,7 +19007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" ht="28">
       <c r="A303" s="17" t="s">
         <v>45</v>
       </c>
@@ -19060,12 +19061,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" ht="28">
       <c r="A304" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C304" s="15" t="s">
         <v>337</v>
@@ -19114,7 +19115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" ht="28">
       <c r="A305" s="17" t="s">
         <v>45</v>
       </c>
@@ -19168,7 +19169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" ht="28">
       <c r="A306" s="17" t="s">
         <v>45</v>
       </c>
@@ -19222,7 +19223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" ht="28">
       <c r="A307" s="17" t="s">
         <v>45</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" ht="28">
       <c r="A308" s="17" t="s">
         <v>45</v>
       </c>
@@ -19330,12 +19331,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" ht="28">
       <c r="A309" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>339</v>
@@ -19384,12 +19385,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" ht="28">
       <c r="A310" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C310" s="15" t="s">
         <v>329</v>
@@ -19435,10 +19436,10 @@
         <v>2864177</v>
       </c>
       <c r="Q310" s="10" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="311" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" ht="28">
       <c r="A311" s="17" t="s">
         <v>45</v>
       </c>
@@ -19489,10 +19490,10 @@
         <v>445313</v>
       </c>
       <c r="Q311" s="10" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="312" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" ht="28">
       <c r="A312" s="17" t="s">
         <v>45</v>
       </c>
@@ -19546,7 +19547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" ht="28">
       <c r="A313" s="17" t="s">
         <v>45</v>
       </c>
@@ -19600,7 +19601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" ht="28">
       <c r="A314" s="17" t="s">
         <v>45</v>
       </c>
@@ -19654,7 +19655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" ht="28">
       <c r="A315" s="17" t="s">
         <v>45</v>
       </c>
@@ -19708,7 +19709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" ht="28">
       <c r="A316" s="17" t="s">
         <v>45</v>
       </c>
@@ -19762,7 +19763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" ht="28">
       <c r="A317" s="17" t="s">
         <v>45</v>
       </c>
@@ -19813,10 +19814,10 @@
         <v>66839</v>
       </c>
       <c r="Q317" s="10" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="318" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" ht="28">
       <c r="A318" s="17" t="s">
         <v>45</v>
       </c>
@@ -19867,10 +19868,10 @@
         <v>2052414</v>
       </c>
       <c r="Q318" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="319" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" ht="28">
       <c r="A319" s="17" t="s">
         <v>45</v>
       </c>
@@ -19924,7 +19925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="320" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" ht="28">
       <c r="A320" s="17" t="s">
         <v>45</v>
       </c>
@@ -19978,7 +19979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="321" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" ht="28">
       <c r="A321" s="17" t="s">
         <v>45</v>
       </c>
@@ -20029,15 +20030,15 @@
         <v>3968193</v>
       </c>
       <c r="Q321" s="10" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="322" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" ht="28">
       <c r="A322" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C322" s="15" t="s">
         <v>325</v>
@@ -20083,10 +20084,10 @@
         <v>6770121</v>
       </c>
       <c r="Q322" s="10" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="323" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" ht="28">
       <c r="A323" s="17" t="s">
         <v>45</v>
       </c>
@@ -20137,10 +20138,10 @@
         <v>912517</v>
       </c>
       <c r="Q323" s="10" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="324" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" ht="28">
       <c r="A324" s="17" t="s">
         <v>45</v>
       </c>
@@ -20194,7 +20195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" ht="28">
       <c r="A325" s="17" t="s">
         <v>45</v>
       </c>
@@ -20245,10 +20246,10 @@
         <v>3653000</v>
       </c>
       <c r="Q325" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="326" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" ht="28">
       <c r="A326" s="17" t="s">
         <v>45</v>
       </c>
@@ -20299,10 +20300,10 @@
         <v>4637000</v>
       </c>
       <c r="Q326" s="10" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="327" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" ht="28">
       <c r="A327" s="17" t="s">
         <v>45</v>
       </c>
@@ -20353,10 +20354,10 @@
         <v>1982041</v>
       </c>
       <c r="Q327" s="10" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="328" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" ht="28">
       <c r="A328" s="17" t="s">
         <v>45</v>
       </c>
@@ -20410,7 +20411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="329" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" ht="28">
       <c r="A329" s="17" t="s">
         <v>45</v>
       </c>
@@ -20464,12 +20465,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="330" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" ht="28">
       <c r="A330" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C330" s="15" t="s">
         <v>412</v>
@@ -20518,7 +20519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" ht="28">
       <c r="A331" s="17" t="s">
         <v>45</v>
       </c>
@@ -20572,7 +20573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="332" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" ht="28">
       <c r="A332" s="17" t="s">
         <v>45</v>
       </c>
@@ -20626,7 +20627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="333" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" ht="28">
       <c r="A333" s="17" t="s">
         <v>45</v>
       </c>
@@ -20677,15 +20678,15 @@
         <v>785690</v>
       </c>
       <c r="Q333" s="10" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="334" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" ht="28">
       <c r="A334" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C334" s="15" t="s">
         <v>414</v>
@@ -20731,10 +20732,10 @@
         <v>361068</v>
       </c>
       <c r="Q334" s="10" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="335" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" ht="28">
       <c r="A335" s="17" t="s">
         <v>45</v>
       </c>
@@ -20788,7 +20789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="336" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" ht="28">
       <c r="A336" s="17" t="s">
         <v>45</v>
       </c>
@@ -20839,10 +20840,10 @@
         <v>532223</v>
       </c>
       <c r="Q336" s="10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="337" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" ht="28">
       <c r="A337" s="17" t="s">
         <v>45</v>
       </c>
@@ -20896,12 +20897,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" ht="28">
       <c r="A338" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C338" s="15" t="s">
         <v>337</v>
@@ -20947,10 +20948,10 @@
         <v>1260000</v>
       </c>
       <c r="Q338" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="339" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17" ht="28">
       <c r="A339" s="17" t="s">
         <v>45</v>
       </c>
@@ -21004,12 +21005,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" ht="28">
       <c r="A340" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C340" s="15" t="s">
         <v>423</v>
@@ -21058,7 +21059,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" ht="28">
       <c r="A341" s="17" t="s">
         <v>45</v>
       </c>
@@ -21109,10 +21110,10 @@
         <v>113929</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="342" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17" ht="28">
       <c r="A342" s="17" t="s">
         <v>45</v>
       </c>
@@ -21163,10 +21164,10 @@
         <v>186300</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="343" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" ht="28">
       <c r="A343" s="17" t="s">
         <v>45</v>
       </c>
@@ -21220,7 +21221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" ht="28">
       <c r="A344" s="17" t="s">
         <v>45</v>
       </c>
@@ -21274,7 +21275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="345" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" ht="28">
       <c r="A345" s="17" t="s">
         <v>45</v>
       </c>
@@ -21328,7 +21329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" ht="28">
       <c r="A346" s="17" t="s">
         <v>45</v>
       </c>
@@ -21382,7 +21383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="347" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" ht="28">
       <c r="A347" s="17" t="s">
         <v>45</v>
       </c>
@@ -21436,12 +21437,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" ht="28">
       <c r="A348" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C348" s="15" t="s">
         <v>432</v>
@@ -21487,54 +21488,54 @@
         <v>1467520</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="349" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" ht="50.25" customHeight="1">
       <c r="A349" s="26" t="s">
         <v>81</v>
       </c>
       <c r="B349" s="27"/>
       <c r="C349" s="27"/>
     </row>
-    <row r="350" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" ht="32.25" customHeight="1">
       <c r="A350" s="24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B350" s="25"/>
       <c r="C350" s="25"/>
     </row>
-    <row r="351" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" ht="32.25" customHeight="1">
       <c r="A351" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B351" s="25"/>
       <c r="C351" s="25"/>
     </row>
-    <row r="352" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" ht="53.25" customHeight="1">
       <c r="A352" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B352" s="25"/>
       <c r="C352" s="25"/>
     </row>
-    <row r="353" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" ht="42" customHeight="1">
       <c r="A353" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B353" s="25"/>
       <c r="C353" s="25"/>
     </row>
-    <row r="354" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" ht="43.5" customHeight="1">
       <c r="A354" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B354" s="25"/>
       <c r="C354" s="25"/>
     </row>
-    <row r="355" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" ht="78" customHeight="1">
       <c r="A355" s="24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B355" s="25"/>
       <c r="C355" s="25"/>
